--- a/data/out/kaggle/fifa/third_teams_fifa_men.xlsx
+++ b/data/out/kaggle/fifa/third_teams_fifa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,14 +570,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1986</v>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -586,14 +586,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1986</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -698,14 +698,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1990</v>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -714,14 +714,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1990</v>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -794,14 +794,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1990</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -810,94 +810,94 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1994</v>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1994</v>
       </c>
       <c r="C26" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1994</v>
       </c>
       <c r="C27" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D27" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1994</v>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -906,62 +906,62 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1994</v>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1994</v>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1994</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1994</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -970,16 +970,32 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1994</v>
       </c>
       <c r="C34" t="n">
+        <v>6</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C35" t="n">
         <v>3</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D35" t="n">
         <v>3</v>
       </c>
     </row>

--- a/data/out/kaggle/fifa/third_teams_fifa_men.xlsx
+++ b/data/out/kaggle/fifa/third_teams_fifa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,14 +538,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1986</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -570,14 +570,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1986</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -586,7 +586,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -698,14 +698,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1990</v>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -810,94 +810,94 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1994</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1994</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1994</v>
       </c>
       <c r="C27" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1994</v>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -906,62 +906,62 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1994</v>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1994</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1994</v>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1994</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -970,32 +970,16 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1994</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1994</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3</v>
-      </c>
-      <c r="D35" t="n">
         <v>3</v>
       </c>
     </row>

--- a/data/out/kaggle/fifa/third_teams_fifa_men.xlsx
+++ b/data/out/kaggle/fifa/third_teams_fifa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,10 +817,10 @@
         <v>1994</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -906,46 +906,46 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1994</v>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1994</v>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1994</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -954,32 +954,16 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1994</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>1994</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3</v>
-      </c>
-      <c r="D34" t="n">
         <v>3</v>
       </c>
     </row>
